--- a/Dataset/Typed Dataset/4(a) completed.xlsx
+++ b/Dataset/Typed Dataset/4(a) completed.xlsx
@@ -1,17 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4507"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22527"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Raj\PycharmProjects\Essay-Marking-Assistant\Dataset\Typed Dataset\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36D94CD4-5FEC-436A-B6B8-2AE999E3ACDA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="125725"/>
-  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <extLst>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -129,8 +135,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -436,31 +442,34 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="A32" sqref="A32"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="81" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="60">
+    <row r="1" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" ht="45">
+      <c r="B1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -468,7 +477,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="75">
+    <row r="3" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>9</v>
       </c>
@@ -476,7 +485,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="75">
+    <row r="4" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
@@ -484,7 +493,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="60">
+    <row r="5" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
@@ -492,7 +501,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="90">
+    <row r="6" spans="1:2" ht="90" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>4</v>
       </c>
@@ -500,7 +509,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="90">
+    <row r="7" spans="1:2" ht="90" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>5</v>
       </c>
@@ -508,7 +517,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:2" ht="75">
+    <row r="8" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>6</v>
       </c>
@@ -516,7 +525,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:2" ht="75">
+    <row r="9" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>7</v>
       </c>
@@ -524,7 +533,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:2" ht="90">
+    <row r="10" spans="1:2" ht="90" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>8</v>
       </c>
@@ -532,7 +541,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="1:2" ht="30">
+    <row r="11" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>10</v>
       </c>
@@ -540,7 +549,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="12" spans="1:2" ht="60">
+    <row r="12" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>11</v>
       </c>
@@ -548,7 +557,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="13" spans="1:2" ht="90">
+    <row r="13" spans="1:2" ht="90" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>12</v>
       </c>
@@ -556,7 +565,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="14" spans="1:2" ht="60">
+    <row r="14" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>13</v>
       </c>
@@ -564,7 +573,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="15" spans="1:2" ht="30">
+    <row r="15" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>14</v>
       </c>
@@ -572,7 +581,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:2" ht="75">
+    <row r="16" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>15</v>
       </c>
@@ -580,7 +589,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="17" spans="1:2" ht="30">
+    <row r="17" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>16</v>
       </c>
@@ -588,7 +597,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="18" spans="1:2" ht="75">
+    <row r="18" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>17</v>
       </c>
@@ -596,7 +605,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="19" spans="1:2" ht="75">
+    <row r="19" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>18</v>
       </c>
@@ -604,7 +613,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="20" spans="1:2" ht="75">
+    <row r="20" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>19</v>
       </c>
@@ -612,7 +621,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:2" ht="120">
+    <row r="21" spans="1:2" ht="120" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>20</v>
       </c>
@@ -620,7 +629,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="22" spans="1:2" ht="90">
+    <row r="22" spans="1:2" ht="90" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>21</v>
       </c>
@@ -628,7 +637,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="23" spans="1:2" ht="30">
+    <row r="23" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>22</v>
       </c>
@@ -636,7 +645,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="24" spans="1:2" ht="45">
+    <row r="24" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>23</v>
       </c>
@@ -644,12 +653,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="25" spans="1:2">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B25">
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:2" ht="45">
+    <row r="26" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>24</v>
       </c>
@@ -657,7 +666,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="27" spans="1:2" ht="75">
+    <row r="27" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>25</v>
       </c>
@@ -665,7 +674,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="28" spans="1:2" ht="45">
+    <row r="28" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>26</v>
       </c>
@@ -673,7 +682,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="29" spans="1:2" ht="45">
+    <row r="29" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>27</v>
       </c>
@@ -681,7 +690,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:2" ht="60">
+    <row r="30" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
         <v>28</v>
       </c>
@@ -689,7 +698,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="31" spans="1:2" ht="60">
+    <row r="31" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
         <v>29</v>
       </c>
